--- a/with_new_data/test_ready.xlsx
+++ b/with_new_data/test_ready.xlsx
@@ -18,15 +18,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +54,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:AG38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +391,7 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -432,37 +459,38 @@
         <v>0</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X1">
         <v>1</v>
       </c>
       <c r="Y1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1">
         <v>1</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1">
         <v>1</v>
       </c>
       <c r="AD1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF1">
         <v>1</v>
       </c>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,37 +558,37 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -628,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -643,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -655,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -726,22 +754,22 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -750,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -824,37 +852,37 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -925,25 +953,25 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -952,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1020,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1029,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1118,37 +1146,37 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1225,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -1246,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1323,28 +1351,28 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1412,28 +1440,28 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -1442,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1516,22 +1544,22 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -1540,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1614,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -1632,13 +1660,13 @@
         <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1706,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -1724,19 +1752,19 @@
         <v>1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1807,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1819,22 +1847,22 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1908,22 +1936,22 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -2003,31 +2031,31 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -2098,34 +2126,34 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
         <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2202,28 +2230,28 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2297,31 +2325,31 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2398,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2407,16 +2435,16 @@
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2493,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -2505,16 +2533,16 @@
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2591,31 +2619,31 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -2686,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -2704,16 +2732,16 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2784,34 +2812,34 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -2882,16 +2910,16 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -2900,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -2980,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -2989,22 +3017,22 @@
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3078,28 +3106,28 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -3182,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3194,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3203,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -3274,34 +3302,34 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE30">
         <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3372,28 +3400,28 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE31">
         <v>1</v>
@@ -3470,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3488,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3571,13 +3599,13 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -3589,13 +3617,13 @@
         <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -3666,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>1</v>
@@ -3675,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3684,13 +3712,13 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3764,31 +3792,31 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3862,35 +3890,38 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
